--- a/Riesgo de liquidez/16.- X1. Liquidity Funding Risk.xlsx
+++ b/Riesgo de liquidez/16.- X1. Liquidity Funding Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de liquidez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D1578-549D-0A45-9E9F-A26AE7826582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAD581-EC7B-ED4E-90EA-C6BF265FBDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
+    <workbookView xWindow="1120" yWindow="760" windowWidth="28280" windowHeight="18360" activeTab="1" xr2:uid="{290A1C89-F290-304F-A272-24133CB5A2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -457,7 +457,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,22 +493,17 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -996,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB27C3A9-4933-614A-997F-8D422D05D8F3}">
   <dimension ref="A2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1095,7 @@
       <c r="H7" s="20">
         <v>6147</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="25">
@@ -1223,7 +1218,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -1267,16 +1262,16 @@
         <f t="shared" si="2"/>
         <v>5670.1183244906879</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="7" t="s">
         <v>71</v>
       </c>
       <c r="O14" s="7" t="s">
@@ -1311,16 +1306,16 @@
         <f>G15+H14</f>
         <v>-257.60751768529008</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -1328,19 +1323,19 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1353,10 +1348,7 @@
         <f>PMT(0.1175/12, 5*12, -2350)</f>
         <v>51.978054081781444</v>
       </c>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O18" s="32"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
